--- a/Tabel Pemesanan Tiket Kereta.xlsx
+++ b/Tabel Pemesanan Tiket Kereta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tugas dan Materi\UPI 2016\Semester 5\Sistem Basis Data\UTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239F00BD-C156-475E-9457-7B359F64980F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFE7D51-D2A2-4935-A647-201EA47CFB98}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4992" xr2:uid="{C41C43FE-8CAB-4197-8FAD-5B8E71EE3CBE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="79">
   <si>
     <t>Customer</t>
   </si>
@@ -141,9 +141,6 @@
     <t>jumlah_tiket_bayi</t>
   </si>
   <si>
-    <t>kd_pembeli (email)</t>
-  </si>
-  <si>
     <t>kode_booking</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
     <t>id_pemesanan</t>
   </si>
   <si>
-    <t>Char(20) Not Null</t>
-  </si>
-  <si>
     <t>Tinyint(1) Not Null Unsigned</t>
   </si>
   <si>
@@ -190,12 +184,6 @@
   </si>
   <si>
     <t>Enum('Dewasa' , ' Bayi') Not Null</t>
-  </si>
-  <si>
-    <t>Enum('Menunggu Pembayaran' , 'Menunggu Konfirmasi' , 'Gagal', 'Berhasil') Not Null</t>
-  </si>
-  <si>
-    <t>Enum('Gagal' , 'Proses', 'Berhasil') Default 'Proses'</t>
   </si>
   <si>
     <t>MediumInt(1)  Not Null Unsigned</t>
@@ -222,9 +210,6 @@
     <t>kelas</t>
   </si>
   <si>
-    <t>Enum('Ekonomi', 'Premium', 'Bisnis', 'Eksekutif')</t>
-  </si>
-  <si>
     <t>no_kursi</t>
   </si>
   <si>
@@ -291,11 +276,17 @@
     </r>
   </si>
   <si>
-    <t>Enum('Terisi' , 'Kosong') Not Null</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Varchar(40) Not Null </t>
+    <t>waktu_tiba</t>
+  </si>
+  <si>
+    <t>waktu_berangkat</t>
+  </si>
+  <si>
+    <t>Time Not Null</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Char(5) Not Nul </t>
     </r>
     <r>
       <rPr>
@@ -309,23 +300,8 @@
     </r>
   </si>
   <si>
-    <t>stasiun_tujuan</t>
-  </si>
-  <si>
-    <t>stasiun_keberangkatan</t>
-  </si>
-  <si>
-    <t>waktu_tiba</t>
-  </si>
-  <si>
-    <t>waktu_berangkat</t>
-  </si>
-  <si>
-    <t>Time Not Null</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Char(5) Not Nul </t>
+    <r>
+      <t xml:space="preserve">Char(5) Not Null </t>
     </r>
     <r>
       <rPr>
@@ -339,8 +315,29 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Char(5) Not Null </t>
+    <t>tgl_keberangkatan</t>
+  </si>
+  <si>
+    <t>Jadwal</t>
+  </si>
+  <si>
+    <t>Enum('Tersedia' , 'Penuh') Default 'Tersedia'</t>
+  </si>
+  <si>
+    <t>id_jadwal</t>
+  </si>
+  <si>
+    <t>harga_tiket</t>
+  </si>
+  <si>
+    <t>id_harga</t>
+  </si>
+  <si>
+    <t>Varchar(20) Not Null</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Varchar(40) Null </t>
     </r>
     <r>
       <rPr>
@@ -354,25 +351,31 @@
     </r>
   </si>
   <si>
-    <t>tgl_keberangkatan</t>
-  </si>
-  <si>
-    <t>Jadwal</t>
-  </si>
-  <si>
-    <t>id_kereta</t>
-  </si>
-  <si>
-    <t>Enum('Tersedia' , 'Penuh') Default 'Tersedia'</t>
-  </si>
-  <si>
-    <t>id_jadwal</t>
-  </si>
-  <si>
-    <t>harga_tiket</t>
-  </si>
-  <si>
-    <t>id_harga</t>
+    <t>kd_pembeli_customer</t>
+  </si>
+  <si>
+    <t>kd_pembeli_anonim</t>
+  </si>
+  <si>
+    <t>Varchar(32) Not Null</t>
+  </si>
+  <si>
+    <t>Enum('Gagal' , 'Proses', 'Berhasil') Not Null Default 'Proses'</t>
+  </si>
+  <si>
+    <t>Enum('Menunggu Pembayaran' , 'Menunggu Konfirmasi' , 'Gagal', 'Berhasil') Not Null Default Menunggu Pembayaran</t>
+  </si>
+  <si>
+    <t>kd_stasiun_keberangkatan</t>
+  </si>
+  <si>
+    <t>kd_stasiun_tujuan</t>
+  </si>
+  <si>
+    <t>Enum('Ekonomi', 'Premium', 'Bisnis', 'Eksekutif') Not Null</t>
+  </si>
+  <si>
+    <t>Enum('Terisi' , 'Kosong') Not Null Default Kosong</t>
   </si>
 </sst>
 </file>
@@ -782,8 +785,8 @@
   </sheetPr>
   <dimension ref="A2:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -792,11 +795,11 @@
     <col min="2" max="2" width="22.5546875" customWidth="1"/>
     <col min="3" max="3" width="50.44140625" customWidth="1"/>
     <col min="4" max="4" width="3.5546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
     <col min="6" max="6" width="50.44140625" customWidth="1"/>
     <col min="7" max="7" width="3.109375" style="6" customWidth="1"/>
     <col min="8" max="8" width="17.88671875" customWidth="1"/>
-    <col min="9" max="9" width="49.21875" customWidth="1"/>
+    <col min="9" max="9" width="52.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="19.2" x14ac:dyDescent="0.45">
@@ -864,21 +867,21 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
@@ -886,21 +889,21 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
@@ -926,7 +929,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
@@ -1018,39 +1021,39 @@
     </row>
     <row r="15" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="2" t="s">
@@ -1060,103 +1063,109 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:9" ht="50.4" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
       <c r="H18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D20" s="4"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D21" s="4"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>46</v>
+        <v>30</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:9" ht="33.6" x14ac:dyDescent="0.4">
       <c r="B23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="D23" s="4"/>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D24" s="4"/>
       <c r="G24" s="4"/>
     </row>
@@ -1176,21 +1185,19 @@
       <c r="D28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
     </row>
     <row r="29" spans="2:9" ht="19.2" x14ac:dyDescent="0.45">
       <c r="B29" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="4"/>
       <c r="E29" s="8" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="4"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
     </row>
     <row r="30" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
@@ -1210,30 +1217,30 @@
     </row>
     <row r="31" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" t="s">
-        <v>73</v>
+      <c r="E31" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>19</v>
@@ -1243,41 +1250,41 @@
     <row r="33" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="C33" s="2"/>
       <c r="D33" s="4"/>
-      <c r="E33" t="s">
-        <v>65</v>
+      <c r="E33" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="D34" s="4"/>
-      <c r="E34" t="s">
-        <v>64</v>
+      <c r="E34" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="D35" s="4"/>
-      <c r="E35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
+      <c r="E35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="D36" s="4"/>
-      <c r="E36" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" t="s">
-        <v>68</v>
+      <c r="E36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="2"/>
@@ -1288,10 +1295,10 @@
       <c r="C37" s="2"/>
       <c r="D37" s="4"/>
       <c r="E37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G37" s="4"/>
     </row>
@@ -1346,7 +1353,7 @@
         <v>23</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="2" t="s">
@@ -1357,15 +1364,15 @@
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B43" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>14</v>
@@ -1375,15 +1382,15 @@
       <c r="F43" s="2"/>
       <c r="G43" s="4"/>
       <c r="H43" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B44" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>14</v>
@@ -1391,10 +1398,10 @@
       <c r="D44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
@@ -1403,7 +1410,7 @@
     </row>
     <row r="46" spans="2:9" ht="19.2" x14ac:dyDescent="0.45">
       <c r="H46" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I46" s="8"/>
     </row>
@@ -1417,26 +1424,26 @@
     </row>
     <row r="48" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="H48" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="8:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="H49" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="8:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="H50" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Tabel Pemesanan Tiket Kereta.xlsx
+++ b/Tabel Pemesanan Tiket Kereta.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tugas dan Materi\UPI 2016\Semester 5\Sistem Basis Data\UTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irfan\Documents\GitHub\SistemBasisData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFE7D51-D2A2-4935-A647-201EA47CFB98}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB1994E-85CF-4F8A-AD7D-E3CFE3A690A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4992" xr2:uid="{C41C43FE-8CAB-4197-8FAD-5B8E71EE3CBE}"/>
   </bookViews>
@@ -785,8 +785,8 @@
   </sheetPr>
   <dimension ref="A2:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1448,6 +1448,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="B40:C40"/>
@@ -1455,11 +1460,6 @@
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="E29:F29"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabel Pemesanan Tiket Kereta.xlsx
+++ b/Tabel Pemesanan Tiket Kereta.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irfan\Documents\GitHub\SistemBasisData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tugas dan Materi\UPI 2016\Semester 5\Sistem Basis Data\UTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB1994E-85CF-4F8A-AD7D-E3CFE3A690A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680CC45F-5902-405F-BD90-2249BF411E0E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4992" xr2:uid="{C41C43FE-8CAB-4197-8FAD-5B8E71EE3CBE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
   <si>
     <t>Customer</t>
   </si>
@@ -376,6 +376,27 @@
   </si>
   <si>
     <t>Enum('Terisi' , 'Kosong') Not Null Default Kosong</t>
+  </si>
+  <si>
+    <t>DateTime() Null</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Integer(1)  Null Unsigned </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Historic"/>
+        <family val="2"/>
+      </rPr>
+      <t>Foreign Key</t>
+    </r>
+  </si>
+  <si>
+    <t>MediumInt(1)  Null Unsigned</t>
   </si>
 </sst>
 </file>
@@ -418,7 +439,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,6 +458,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -450,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -463,6 +490,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -785,8 +813,8 @@
   </sheetPr>
   <dimension ref="A2:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,20 +831,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
@@ -982,20 +1010,20 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="2:9" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
@@ -1064,11 +1092,11 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="50.4" x14ac:dyDescent="0.4">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>19</v>
+      <c r="C17" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="2" t="s">
@@ -1086,11 +1114,11 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>44</v>
+      <c r="B18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="2"/>
@@ -1105,10 +1133,10 @@
     </row>
     <row r="19" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="D19" s="4"/>
       <c r="G19" s="4"/>
@@ -1121,55 +1149,61 @@
     </row>
     <row r="20" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="D20" s="4"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="D21" s="4"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="D22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="2:9" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>73</v>
+        <v>30</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:9" ht="33.6" x14ac:dyDescent="0.4">
       <c r="B24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="D24" s="4"/>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D25" s="4"/>
       <c r="G25" s="4"/>
     </row>
@@ -1187,15 +1221,15 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:9" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="8"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="8"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="4"/>
       <c r="H29" s="2"/>
     </row>
@@ -1311,20 +1345,20 @@
       <c r="G38" s="4"/>
     </row>
     <row r="40" spans="2:9" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="8"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F40" s="8"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I40" s="8"/>
+      <c r="I40" s="9"/>
     </row>
     <row r="41" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
@@ -1409,10 +1443,10 @@
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="2:9" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="H46" s="8" t="s">
+      <c r="H46" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I46" s="8"/>
+      <c r="I46" s="9"/>
     </row>
     <row r="47" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="H47" s="3" t="s">
@@ -1448,11 +1482,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="B40:C40"/>
@@ -1460,6 +1489,11 @@
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="E29:F29"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabel Pemesanan Tiket Kereta.xlsx
+++ b/Tabel Pemesanan Tiket Kereta.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tugas dan Materi\UPI 2016\Semester 5\Sistem Basis Data\UTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irfan\Documents\GitHub\SistemBasisData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680CC45F-5902-405F-BD90-2249BF411E0E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD615C50-14C8-45B3-AAA6-F7AB1B8E936C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4992" xr2:uid="{C41C43FE-8CAB-4197-8FAD-5B8E71EE3CBE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="83">
   <si>
     <t>Customer</t>
   </si>
@@ -397,6 +397,40 @@
   </si>
   <si>
     <t>MediumInt(1)  Null Unsigned</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Integer(1)  Not Null Unsigned </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Historic"/>
+        <family val="2"/>
+      </rPr>
+      <t>Foreign Key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Historic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Historic"/>
+        <family val="2"/>
+      </rPr>
+      <t>Unique</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -439,7 +473,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,6 +498,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -477,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -494,6 +534,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -814,7 +862,7 @@
   <dimension ref="A2:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1058,8 +1106,8 @@
       <c r="E15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>44</v>
+      <c r="F15" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="2" t="s">
@@ -1132,10 +1180,10 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="10" t="s">
         <v>80</v>
       </c>
       <c r="D19" s="4"/>
@@ -1221,10 +1269,10 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:9" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="9" t="s">
         <v>63</v>
@@ -1234,10 +1282,10 @@
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="4"/>
@@ -1250,10 +1298,10 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B31" t="s">
+      <c r="B31" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D31" s="4"/>
@@ -1266,10 +1314,10 @@
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B32" t="s">
+      <c r="B32" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D32" s="4"/>
@@ -1340,8 +1388,12 @@
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="E38" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="G38" s="4"/>
     </row>
     <row r="40" spans="2:9" ht="19.2" x14ac:dyDescent="0.45">
@@ -1482,6 +1534,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="B40:C40"/>
@@ -1489,11 +1546,6 @@
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="E29:F29"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabel Pemesanan Tiket Kereta.xlsx
+++ b/Tabel Pemesanan Tiket Kereta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irfan\Documents\GitHub\SistemBasisData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD615C50-14C8-45B3-AAA6-F7AB1B8E936C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A5E918-DB42-4122-9411-2E591D09773A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4992" xr2:uid="{C41C43FE-8CAB-4197-8FAD-5B8E71EE3CBE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="83">
   <si>
     <t>Customer</t>
   </si>
@@ -531,17 +531,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -861,8 +861,8 @@
   </sheetPr>
   <dimension ref="A2:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="C20" sqref="B20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -879,20 +879,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="9"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
@@ -1058,20 +1058,20 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="2:9" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
@@ -1180,10 +1180,10 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D19" s="4"/>
@@ -1196,10 +1196,10 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D20" s="4"/>
@@ -1269,23 +1269,23 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:9" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="11"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="12"/>
       <c r="G29" s="4"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="4"/>
@@ -1298,10 +1298,10 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D31" s="4"/>
@@ -1314,10 +1314,10 @@
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>43</v>
       </c>
       <c r="D32" s="4"/>
@@ -1397,20 +1397,20 @@
       <c r="G38" s="4"/>
     </row>
     <row r="40" spans="2:9" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="9"/>
+      <c r="C40" s="12"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="12"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I40" s="9"/>
+      <c r="I40" s="12"/>
     </row>
     <row r="41" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
@@ -1495,10 +1495,10 @@
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="2:9" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="H46" s="9" t="s">
+      <c r="H46" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I46" s="9"/>
+      <c r="I46" s="12"/>
     </row>
     <row r="47" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="H47" s="3" t="s">
@@ -1534,11 +1534,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="B40:C40"/>
@@ -1546,6 +1541,11 @@
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="E29:F29"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabel Pemesanan Tiket Kereta.xlsx
+++ b/Tabel Pemesanan Tiket Kereta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irfan\Documents\GitHub\SistemBasisData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A5E918-DB42-4122-9411-2E591D09773A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE42C61-171D-497C-9C77-02BF4ADF33CC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4992" xr2:uid="{C41C43FE-8CAB-4197-8FAD-5B8E71EE3CBE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="82">
   <si>
     <t>Customer</t>
   </si>
@@ -378,9 +378,6 @@
     <t>Enum('Terisi' , 'Kosong') Not Null Default Kosong</t>
   </si>
   <si>
-    <t>DateTime() Null</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Integer(1)  Null Unsigned </t>
     </r>
@@ -396,9 +393,6 @@
     </r>
   </si>
   <si>
-    <t>MediumInt(1)  Null Unsigned</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Integer(1)  Not Null Unsigned </t>
     </r>
@@ -431,6 +425,9 @@
       </rPr>
       <t>Unique</t>
     </r>
+  </si>
+  <si>
+    <t>DateTime() Not Null</t>
   </si>
 </sst>
 </file>
@@ -861,8 +858,8 @@
   </sheetPr>
   <dimension ref="A2:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="C20" sqref="B20:C20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1107,7 +1104,7 @@
         <v>32</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="2" t="s">
@@ -1144,7 +1141,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="2" t="s">
@@ -1166,7 +1163,7 @@
         <v>65</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="2"/>
@@ -1184,15 +1181,15 @@
         <v>67</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>44</v>
+      <c r="I19" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
@@ -1200,7 +1197,7 @@
         <v>36</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="4"/>
       <c r="G20" s="4"/>
@@ -1230,7 +1227,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D23" s="4"/>
       <c r="G23" s="4"/>
@@ -1534,6 +1531,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="B40:C40"/>
@@ -1541,11 +1543,6 @@
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="E29:F29"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabel Pemesanan Tiket Kereta.xlsx
+++ b/Tabel Pemesanan Tiket Kereta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irfan\Documents\GitHub\SistemBasisData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE42C61-171D-497C-9C77-02BF4ADF33CC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398ACC3E-2167-4867-A826-9119697B5896}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4992" xr2:uid="{C41C43FE-8CAB-4197-8FAD-5B8E71EE3CBE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="82">
   <si>
     <t>Customer</t>
   </si>
@@ -243,8 +243,35 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Varchar(50) Not Null </t>
+    <t>kd_kereta</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Varchar(40) Not Null </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Historic"/>
+        <family val="2"/>
+      </rPr>
+      <t>Unique</t>
+    </r>
+  </si>
+  <si>
+    <t>waktu_tiba</t>
+  </si>
+  <si>
+    <t>waktu_berangkat</t>
+  </si>
+  <si>
+    <t>Time Not Null</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Char(5) Not Nul </t>
     </r>
     <r>
       <rPr>
@@ -258,11 +285,120 @@
     </r>
   </si>
   <si>
-    <t>kd_kereta</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Varchar(40) Not Null </t>
+    <r>
+      <t xml:space="preserve">Char(5) Not Null </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Historic"/>
+        <family val="2"/>
+      </rPr>
+      <t>Foreign Key</t>
+    </r>
+  </si>
+  <si>
+    <t>tgl_keberangkatan</t>
+  </si>
+  <si>
+    <t>Jadwal</t>
+  </si>
+  <si>
+    <t>Enum('Tersedia' , 'Penuh') Default 'Tersedia'</t>
+  </si>
+  <si>
+    <t>id_jadwal</t>
+  </si>
+  <si>
+    <t>harga_tiket</t>
+  </si>
+  <si>
+    <t>id_harga</t>
+  </si>
+  <si>
+    <t>Varchar(20) Not Null</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Varchar(40) Null </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Historic"/>
+        <family val="2"/>
+      </rPr>
+      <t>Foreign Key</t>
+    </r>
+  </si>
+  <si>
+    <t>kd_pembeli_customer</t>
+  </si>
+  <si>
+    <t>kd_pembeli_anonim</t>
+  </si>
+  <si>
+    <t>Varchar(32) Not Null</t>
+  </si>
+  <si>
+    <t>Enum('Gagal' , 'Proses', 'Berhasil') Not Null Default 'Proses'</t>
+  </si>
+  <si>
+    <t>Enum('Menunggu Pembayaran' , 'Menunggu Konfirmasi' , 'Gagal', 'Berhasil') Not Null Default Menunggu Pembayaran</t>
+  </si>
+  <si>
+    <t>kd_stasiun_keberangkatan</t>
+  </si>
+  <si>
+    <t>kd_stasiun_tujuan</t>
+  </si>
+  <si>
+    <t>Enum('Ekonomi', 'Premium', 'Bisnis', 'Eksekutif') Not Null</t>
+  </si>
+  <si>
+    <t>Enum('Terisi' , 'Kosong') Not Null Default Kosong</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Integer(1)  Null Unsigned </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Historic"/>
+        <family val="2"/>
+      </rPr>
+      <t>Foreign Key</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Integer(1)  Not Null Unsigned </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Historic"/>
+        <family val="2"/>
+      </rPr>
+      <t>Foreign Key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Historic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -276,17 +412,11 @@
     </r>
   </si>
   <si>
-    <t>waktu_tiba</t>
-  </si>
-  <si>
-    <t>waktu_berangkat</t>
-  </si>
-  <si>
-    <t>Time Not Null</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Char(5) Not Nul </t>
+    <t>DateTime() Not Null</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Varchar(50) Not Null </t>
     </r>
     <r>
       <rPr>
@@ -298,136 +428,6 @@
       </rPr>
       <t>Foreign Key</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Char(5) Not Null </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Historic"/>
-        <family val="2"/>
-      </rPr>
-      <t>Foreign Key</t>
-    </r>
-  </si>
-  <si>
-    <t>tgl_keberangkatan</t>
-  </si>
-  <si>
-    <t>Jadwal</t>
-  </si>
-  <si>
-    <t>Enum('Tersedia' , 'Penuh') Default 'Tersedia'</t>
-  </si>
-  <si>
-    <t>id_jadwal</t>
-  </si>
-  <si>
-    <t>harga_tiket</t>
-  </si>
-  <si>
-    <t>id_harga</t>
-  </si>
-  <si>
-    <t>Varchar(20) Not Null</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Varchar(40) Null </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Historic"/>
-        <family val="2"/>
-      </rPr>
-      <t>Foreign Key</t>
-    </r>
-  </si>
-  <si>
-    <t>kd_pembeli_customer</t>
-  </si>
-  <si>
-    <t>kd_pembeli_anonim</t>
-  </si>
-  <si>
-    <t>Varchar(32) Not Null</t>
-  </si>
-  <si>
-    <t>Enum('Gagal' , 'Proses', 'Berhasil') Not Null Default 'Proses'</t>
-  </si>
-  <si>
-    <t>Enum('Menunggu Pembayaran' , 'Menunggu Konfirmasi' , 'Gagal', 'Berhasil') Not Null Default Menunggu Pembayaran</t>
-  </si>
-  <si>
-    <t>kd_stasiun_keberangkatan</t>
-  </si>
-  <si>
-    <t>kd_stasiun_tujuan</t>
-  </si>
-  <si>
-    <t>Enum('Ekonomi', 'Premium', 'Bisnis', 'Eksekutif') Not Null</t>
-  </si>
-  <si>
-    <t>Enum('Terisi' , 'Kosong') Not Null Default Kosong</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Integer(1)  Null Unsigned </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Historic"/>
-        <family val="2"/>
-      </rPr>
-      <t>Foreign Key</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Integer(1)  Not Null Unsigned </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Historic"/>
-        <family val="2"/>
-      </rPr>
-      <t>Foreign Key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Historic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Historic"/>
-        <family val="2"/>
-      </rPr>
-      <t>Unique</t>
-    </r>
-  </si>
-  <si>
-    <t>DateTime() Not Null</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -529,16 +529,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -858,15 +859,15 @@
   </sheetPr>
   <dimension ref="A2:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.88671875" style="6" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="50.44140625" customWidth="1"/>
+    <col min="3" max="3" width="58.6640625" customWidth="1"/>
     <col min="4" max="4" width="3.5546875" style="6" customWidth="1"/>
     <col min="5" max="5" width="25.33203125" customWidth="1"/>
     <col min="6" max="6" width="50.44140625" customWidth="1"/>
@@ -876,20 +877,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
@@ -940,21 +941,21 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
@@ -962,21 +963,21 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
@@ -1002,7 +1003,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
@@ -1055,20 +1056,20 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="2:9" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="12"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
@@ -1094,17 +1095,17 @@
     </row>
     <row r="15" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>80</v>
+      <c r="F15" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="2" t="s">
@@ -1116,10 +1117,10 @@
     </row>
     <row r="16" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="2" t="s">
@@ -1141,14 +1142,14 @@
         <v>24</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="2" t="s">
@@ -1160,7 +1161,7 @@
     </row>
     <row r="18" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B18" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>44</v>
@@ -1177,11 +1178,11 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B19" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>79</v>
+      <c r="B19" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="D19" s="4"/>
       <c r="G19" s="4"/>
@@ -1189,7 +1190,7 @@
         <v>39</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
@@ -1197,7 +1198,7 @@
         <v>36</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" s="4"/>
       <c r="G20" s="4"/>
@@ -1237,7 +1238,7 @@
         <v>31</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="4"/>
       <c r="G24" s="4"/>
@@ -1266,23 +1267,23 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:9" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="12"/>
+      <c r="E29" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="11"/>
       <c r="G29" s="4"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="4"/>
@@ -1295,31 +1296,31 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B31" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>44</v>
+      <c r="E31" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B32" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>43</v>
+      <c r="B32" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>19</v>
@@ -1327,43 +1328,48 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C33" s="2"/>
+      <c r="B33" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="D33" s="4"/>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="D34" s="4"/>
       <c r="E34" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="D35" s="4"/>
       <c r="E35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="D36" s="4"/>
       <c r="E36" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="2"/>
@@ -1377,7 +1383,7 @@
         <v>31</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G37" s="4"/>
     </row>
@@ -1385,29 +1391,29 @@
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F38" s="8" t="s">
+      <c r="E38" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G38" s="4"/>
     </row>
     <row r="40" spans="2:9" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="12"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F40" s="12"/>
+      <c r="F40" s="11"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I40" s="12"/>
+      <c r="I40" s="11"/>
     </row>
     <row r="41" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
@@ -1439,18 +1445,18 @@
         <v>53</v>
       </c>
       <c r="D42" s="4"/>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G42" s="4"/>
-      <c r="H42" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I42" s="2" t="s">
+      <c r="H42" s="10" t="s">
         <v>54</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
@@ -1484,7 +1490,7 @@
         <v>46</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
@@ -1492,10 +1498,10 @@
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="2:9" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="H46" s="12" t="s">
+      <c r="H46" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I46" s="12"/>
+      <c r="I46" s="11"/>
     </row>
     <row r="47" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="H47" s="3" t="s">
@@ -1526,7 +1532,7 @@
         <v>31</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Tabel Pemesanan Tiket Kereta.xlsx
+++ b/Tabel Pemesanan Tiket Kereta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irfan\Documents\GitHub\SistemBasisData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398ACC3E-2167-4867-A826-9119697B5896}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4756D29-4E0F-40AE-BA44-82E936C16995}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4992" xr2:uid="{C41C43FE-8CAB-4197-8FAD-5B8E71EE3CBE}"/>
   </bookViews>
@@ -530,16 +530,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -859,8 +859,8 @@
   </sheetPr>
   <dimension ref="A2:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -877,20 +877,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="11"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
@@ -1056,20 +1056,20 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="2:9" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="11"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="11"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
@@ -1267,20 +1267,20 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:9" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="12"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="11"/>
+      <c r="F29" s="13"/>
       <c r="G29" s="4"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -1296,7 +1296,7 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -1312,7 +1312,7 @@
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -1328,7 +1328,7 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="12" t="s">
         <v>65</v>
       </c>
       <c r="C33" s="8" t="s">
@@ -1400,20 +1400,20 @@
       <c r="G38" s="4"/>
     </row>
     <row r="40" spans="2:9" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="11"/>
+      <c r="C40" s="13"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F40" s="11"/>
+      <c r="F40" s="13"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I40" s="11"/>
+      <c r="I40" s="13"/>
     </row>
     <row r="41" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
@@ -1498,10 +1498,10 @@
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="2:9" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="H46" s="11" t="s">
+      <c r="H46" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I46" s="11"/>
+      <c r="I46" s="13"/>
     </row>
     <row r="47" spans="2:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="H47" s="3" t="s">
@@ -1537,11 +1537,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="B40:C40"/>
@@ -1549,6 +1544,11 @@
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="E29:F29"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabel Pemesanan Tiket Kereta.xlsx
+++ b/Tabel Pemesanan Tiket Kereta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irfan\Documents\GitHub\SistemBasisData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4756D29-4E0F-40AE-BA44-82E936C16995}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB467387-8AB8-4365-99CA-7BA048685B19}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4992" xr2:uid="{C41C43FE-8CAB-4197-8FAD-5B8E71EE3CBE}"/>
   </bookViews>
@@ -860,7 +860,7 @@
   <dimension ref="A2:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1537,6 +1537,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="B40:C40"/>
@@ -1544,11 +1549,6 @@
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="E29:F29"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabel Pemesanan Tiket Kereta.xlsx
+++ b/Tabel Pemesanan Tiket Kereta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irfan\Documents\GitHub\SistemBasisData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB467387-8AB8-4365-99CA-7BA048685B19}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EF8EEB-D3E5-4D76-B50A-471FB134A3E8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4992" xr2:uid="{C41C43FE-8CAB-4197-8FAD-5B8E71EE3CBE}"/>
   </bookViews>
@@ -859,8 +859,8 @@
   </sheetPr>
   <dimension ref="A2:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1537,11 +1537,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="B40:C40"/>
@@ -1549,6 +1544,11 @@
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="E29:F29"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabel Pemesanan Tiket Kereta.xlsx
+++ b/Tabel Pemesanan Tiket Kereta.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irfan\Documents\GitHub\SistemBasisData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tugas dan Materi\UPI 2016\Semester 5\Sistem Basis Data\UTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EF8EEB-D3E5-4D76-B50A-471FB134A3E8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F93B3E-1AE3-41FF-9090-34EF1B83D745}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4992" xr2:uid="{C41C43FE-8CAB-4197-8FAD-5B8E71EE3CBE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="82">
   <si>
     <t>Customer</t>
   </si>
@@ -859,8 +859,8 @@
   </sheetPr>
   <dimension ref="A2:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="62" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1123,11 +1123,11 @@
         <v>68</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>44</v>
+      <c r="F16" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="2" t="s">
